--- a/Multiknapsack/results/random_recourse/singlecut/M50_N100_T50_a75_reformulation.xlsx
+++ b/Multiknapsack/results/random_recourse/singlecut/M50_N100_T50_a75_reformulation.xlsx
@@ -446,7 +446,7 @@
         <v>0.2881232603095206</v>
       </c>
       <c r="D2">
-        <v>3629.627580842</v>
+        <v>3628.080185983</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -466,13 +466,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-868.5473442412645</v>
+        <v>-868.5473439574538</v>
       </c>
       <c r="C3">
-        <v>0.481305625490813</v>
+        <v>0.4813056583245627</v>
       </c>
       <c r="D3">
-        <v>3624.674866553</v>
+        <v>3624.397065511</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -495,10 +495,10 @@
         <v>-876.6257378586189</v>
       </c>
       <c r="C4">
-        <v>0.40436125928400896</v>
+        <v>0.40476687146591733</v>
       </c>
       <c r="D4">
-        <v>3626.217746993</v>
+        <v>3622.680581468</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -518,13 +518,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-888.6757109088721</v>
+        <v>-888.6086061064475</v>
       </c>
       <c r="C5">
-        <v>0.6640489534727948</v>
+        <v>0.6716507717197328</v>
       </c>
       <c r="D5">
-        <v>3625.694391563</v>
+        <v>3626.814940312</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -550,7 +550,7 @@
         <v>0.32874758479646116</v>
       </c>
       <c r="D6">
-        <v>3626.236287723</v>
+        <v>3633.756014323</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -573,10 +573,10 @@
         <v>-846.3444720048669</v>
       </c>
       <c r="C7">
-        <v>0.6159388059497557</v>
+        <v>0.6159822546319933</v>
       </c>
       <c r="D7">
-        <v>3630.878594448</v>
+        <v>3628.025892173</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -599,10 +599,10 @@
         <v>-851.0232635185354</v>
       </c>
       <c r="C8">
-        <v>0.35732063149033866</v>
+        <v>0.35733090501693315</v>
       </c>
       <c r="D8">
-        <v>3621.726175717</v>
+        <v>3625.271143391</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -625,10 +625,10 @@
         <v>-871.5411031280398</v>
       </c>
       <c r="C9">
-        <v>0.22202965794112647</v>
+        <v>0.22204873711219358</v>
       </c>
       <c r="D9">
-        <v>3618.858589167</v>
+        <v>3624.784063875</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -648,13 +648,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-864.5823877510159</v>
+        <v>-857.5898287715161</v>
       </c>
       <c r="C10">
-        <v>0.3637559810320079</v>
+        <v>1.1829585622111276</v>
       </c>
       <c r="D10">
-        <v>3620.48101108</v>
+        <v>3621.851209648</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -680,7 +680,7 @@
         <v>0.19793450196073345</v>
       </c>
       <c r="D11">
-        <v>3626.743092683</v>
+        <v>3623.151370983</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
